--- a/data/paper_stats/token_cls/label_sets_stats.xlsx
+++ b/data/paper_stats/token_cls/label_sets_stats.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janek\Development\Git\master-thesis\data\paper_stats\token_cls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59284C0-55F0-4E9E-B246-7A5CBA3F5502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA98B600-5F58-40D2-B0D5-744E848E7419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5C21660-E5D2-4AAE-8A9B-941578C11201}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5C21660-E5D2-4AAE-8A9B-941578C11201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>XOR Gateway</t>
   </si>
@@ -78,6 +79,42 @@
   </si>
   <si>
     <t>created with important_analysis/token_cls/label_sets_stats.py</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
 </sst>
 </file>
@@ -485,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08918FA2-C3AC-4DD3-903D-BB43F1B03F4E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,4 +645,226 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C038A48-E90C-48C4-A187-6B4E90D2B4D3}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>148</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>621</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1729</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>363</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>518</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3597</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8008</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8173</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8173</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>